--- a/AAA-Luban-Excel/Datas/PassiveSkills.xlsx
+++ b/AAA-Luban-Excel/Datas/PassiveSkills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9624E3-6D3E-4278-817D-FA13C420298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E4BA7A-B0DF-46F5-BF49-50BF7385B86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23" yWindow="413" windowWidth="17602" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>##</t>
   </si>
   <si>
-    <t>手枪弹药携带量上限+7，霰弹携带量上限+5</t>
-  </si>
-  <si>
     <t>猎手的遗赠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,6 +72,10 @@
   </si>
   <si>
     <t>获得癫狂状态或癫狂加深的同时获得3层灵视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀怪物后有一定概率获得1颗手枪弹或霰弹</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +422,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -482,10 +483,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -493,10 +494,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
